--- a/config/interface_config.xlsx
+++ b/config/interface_config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4029E5-93E7-4E3E-AD56-502C125D40DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC56F101-7874-4C97-858F-C096E648220A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>login</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>describe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,6 +55,16 @@
   </si>
   <si>
     <t>post</t>
+  </si>
+  <si>
+    <t>protocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>interface_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,40 +437,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.25" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="10.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -472,20 +482,26 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C1:C1048576" xr:uid="{EBCC4E75-3072-49FA-ABEA-89610AA3885E}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D1:D1048576" xr:uid="{EBCC4E75-3072-49FA-ABEA-89610AA3885E}">
       <formula1>"post,get"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{FA360423-BF8E-4D4A-BA8F-5344B44F1F16}">
+      <formula1>"http,https"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/interface_config.xlsx
+++ b/config/interface_config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC56F101-7874-4C97-858F-C096E648220A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF30812-BB2C-4C14-940F-98594266FB83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/config/interface_config.xlsx
+++ b/config/interface_config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF30812-BB2C-4C14-940F-98594266FB83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835512C3-AF8C-426B-92C7-EBE25FC15FD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>login</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,22 @@
   </si>
   <si>
     <t>interface_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/call?id=experts.newCriminalCase&amp;v=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增案件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sessionId":"gOZHIRodiQLDPiARVsqSHHQBCOb699WF7NBAf2VUmy3rOLyhksrwatPv2a9GQYQp","caseName":"20191115","privateCase":True}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -449,8 +465,8 @@
     <col min="2" max="2" width="9.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="134.75" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -492,6 +508,26 @@
       </c>
       <c r="F2" s="5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/config/interface_config.xlsx
+++ b/config/interface_config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835512C3-AF8C-426B-92C7-EBE25FC15FD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D818E26F-4BF9-44E7-9CF9-66DA8625A20C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{1D6243DB-BE1B-4936-918E-86DED5FCBAEE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+关联接口：意味着需要从该接口的响应消息中获得数据作为当前接口的请求，多个接口使用中文顿号“、”进行分割，先后顺序是从左到右</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>login</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +117,22 @@
   </si>
   <si>
     <t>{"sessionId":"gOZHIRodiQLDPiARVsqSHHQBCOb699WF7NBAf2VUmy3rOLyhksrwatPv2a9GQYQp","caseName":"20191115","privateCase":True}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relevance_interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relevance_parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data.sessionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录、上传音频文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +166,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -452,11 +519,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -467,10 +534,12 @@
     <col min="4" max="4" width="9.75" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="134.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="24.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -489,8 +558,14 @@
       <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -510,7 +585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -528,6 +603,12 @@
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -542,5 +623,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/interface_config.xlsx
+++ b/config/interface_config.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D818E26F-4BF9-44E7-9CF9-66DA8625A20C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D10B74-9E7C-4DBF-8F70-C4BD9589EFF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>login</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,10 +129,6 @@
   </si>
   <si>
     <t>data.sessionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录、上传音频文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,7 +519,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -605,7 +601,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>18</v>

--- a/config/interface_config.xlsx
+++ b/config/interface_config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D10B74-9E7C-4DBF-8F70-C4BD9589EFF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D92AB6-AF5F-4C0D-86BD-3EA21DACF2F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>login</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,22 @@
   </si>
   <si>
     <t>data.sessionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/test/StatisticalIncome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"date":"2019-05-28"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statistics</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -607,6 +623,26 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">

--- a/config/interface_config.xlsx
+++ b/config/interface_config.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D92AB6-AF5F-4C0D-86BD-3EA21DACF2F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426ADA68-B375-4394-822C-A35257E5FEF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>login</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,22 +129,6 @@
   </si>
   <si>
     <t>data.sessionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/v1/test/StatisticalIncome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"date":"2019-05-28"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statistics</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -623,26 +607,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">

--- a/config/interface_config.xlsx
+++ b/config/interface_config.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426ADA68-B375-4394-822C-A35257E5FEF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47C6C93-D7C3-4E44-85FC-475B861F1FD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,44 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{1D6243DB-BE1B-4936-918E-86DED5FCBAEE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-关联接口：意味着需要从该接口的响应消息中获得数据作为当前接口的请求，多个接口使用中文顿号“、”进行分割，先后顺序是从左到右</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>login</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,19 +80,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"sessionId":"gOZHIRodiQLDPiARVsqSHHQBCOb699WF7NBAf2VUmy3rOLyhksrwatPv2a9GQYQp","caseName":"20191115","privateCase":True}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>relevance_interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>relevance_parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data.sessionId</t>
+    <t>extraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sessionId":${sessionId},"caseName":"20191115","privateCase":True}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,21 +122,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -223,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -235,6 +180,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,11 +469,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -530,12 +484,11 @@
     <col min="4" max="4" width="9.75" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="134.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="36.125" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -554,14 +507,11 @@
       <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>17</v>
+      <c r="G1" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -580,8 +530,11 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -598,14 +551,9 @@
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -619,6 +567,5 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/interface_config.xlsx
+++ b/config/interface_config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47C6C93-D7C3-4E44-85FC-475B861F1FD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4342648-313D-4515-A7BB-2300C6C661BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -483,7 +483,7 @@
     <col min="3" max="3" width="10.75" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="134.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74.875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.125" style="8" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>

--- a/config/interface_config.xlsx
+++ b/config/interface_config.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4342648-313D-4515-A7BB-2300C6C661BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35916A9-2C94-4895-8629-7FBDD66B9AFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>login</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,11 +84,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sessionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"sessionId":${sessionId},"caseName":"20191115","privateCase":True}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session_id=data.sessionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>associated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login=session_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -181,14 +189,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -484,11 +492,12 @@
     <col min="4" max="4" width="9.75" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="74.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.125" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="28.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -507,11 +516,14 @@
       <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -530,11 +542,11 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>16</v>
+      <c r="G2" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -551,9 +563,12 @@
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
